--- a/media/model/ScaledData.xlsx
+++ b/media/model/ScaledData.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4021 +440,5118 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Tanggal</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Hasil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>tenaga panen</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Hasil Panen</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
         <v>-1.683409135583125</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>-1.720176110780096</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>770</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B3" t="n">
         <v>-1.60756113824419</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>-1.641499113001148</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>4879</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B4" t="n">
         <v>-1.499667083017099</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>-1.532979116064666</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>10529</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B5" t="n">
         <v>-1.363043591123657</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>-1.419033119281361</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>16114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B6" t="n">
         <v>-1.246426336790951</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>-1.31051312234488</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>22046</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B7" t="n">
         <v>-1.174003333707146</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>-1.234549124489344</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>26043</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="B8" t="n">
         <v>-1.076271064988698</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>-1.142307127093335</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>30983</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B9" t="n">
         <v>-1.030299735183116</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>-1.093473128471918</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>33986</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B10" t="n">
         <v>-0.9082948299880896</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>-0.9713881319183771</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>40427</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B11" t="n">
         <v>-0.7921147933955196</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>-0.852016135288248</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>46768</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B12" t="n">
         <v>-0.6508925771313174</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>-0.7353571385815308</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>52899</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B13" t="n">
         <v>-0.4896297500115068</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>-0.6214111417982258</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>59165</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B14" t="n">
         <v>-0.434660197037966</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>-0.5617251434831613</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>62598</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B15" t="n">
         <v>-0.3038474699489108</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>-0.4504921466232682</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>68200</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B16" t="n">
         <v>-0.2233994057639007</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>-0.3826671485379676</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>71592</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B17" t="n">
         <v>-0.07864507428373774</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>-0.2632951519078384</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>77473</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B18" t="n">
         <v>0.09266670896016529</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>-0.1303581556606491</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>83762</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B19" t="n">
         <v>0.2389230949346663</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>-0.0001341593368719216</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>90642</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B20" t="n">
         <v>0.362944843253546</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.1246638371400813</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>96670</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B21" t="n">
         <v>0.4436538277028306</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.2114798346892661</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>100952</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="B22" t="n">
         <v>0.5360901202464061</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>0.3362778311662193</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>106540</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B23" t="n">
         <v>0.6154803995762484</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>0.409528829098344</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>109737</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B24" t="n">
         <v>0.7298833576121364</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>0.5207618259582371</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>114438</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B25" t="n">
         <v>0.8626013261220562</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.6482728223586023</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>120153</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B26" t="n">
         <v>1.013596588247708</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>0.7812098186057915</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>125462</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B27" t="n">
         <v>1.15079128396294</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.9222858146232168</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>130928</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B28" t="n">
         <v>1.196910703648246</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>0.9846848128616934</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>134140</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="B29" t="n">
         <v>1.339725762893936</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>1.114908809185471</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>139864</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B30" t="n">
         <v>1.413347588813597</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>1.180020807347359</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>142841</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B31" t="n">
         <v>1.564935210458141</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>1.3021058039009</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>148092</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B32" t="n">
         <v>1.688456273945572</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>1.410625800837382</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>152014</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B33" t="n">
         <v>-1.599547952265441</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>-1.646925112847972</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>4516</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B34" t="n">
         <v>-1.483537161249698</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>-1.541118115834903</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>8789</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B35" t="n">
         <v>-1.373583951504548</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>-1.44345011859207</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>12379</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B36" t="n">
         <v>-1.304601700445721</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>-1.375625120506769</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>15919</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B37" t="n">
         <v>-1.27702877522102</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>-1.348495121272649</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>17400</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B38" t="n">
         <v>-1.191108437385277</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>-1.248114124106404</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>21994</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B39" t="n">
         <v>-1.045987407155322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>-1.101612128242154</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>27187</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B40" t="n">
         <v>-0.9223887727785106</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>-0.9469711326076689</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>33168</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B41" t="n">
         <v>-0.7800743983642673</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>-0.8221731361307157</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>37662</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B42" t="n">
         <v>-0.6806637776756203</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>-0.7326441386581188</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>40677</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B43" t="n">
         <v>-0.5487179235176319</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>-0.6105591421045777</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>45115</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B44" t="n">
         <v>-0.4821056852382136</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>-0.537308144172453</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>47621</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B45" t="n">
         <v>-0.3337760409475842</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>-0.4070841478486758</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>52811</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B46" t="n">
         <v>-0.197399365520348</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>-0.2741471516014865</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>56995</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B47" t="n">
         <v>-0.1104353466275057</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>-0.1900441539757137</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>60107</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B48" t="n">
         <v>-0.004015138298614797</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>-0.07338515726899662</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>64471</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B49" t="n">
         <v>0.1219176746586001</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>0.06226483890160467</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>68531</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B50" t="n">
         <v>0.2447899634348634</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>0.1870628353785579</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>73049</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B51" t="n">
         <v>0.3019879165032905</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>0.2413228338467984</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>74721</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B52" t="n">
         <v>0.440959690775205</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>0.3661208303237515</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>79116</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B53" t="n">
         <v>0.5767581104816158</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>0.4882058268772927</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>83335</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B54" t="n">
         <v>0.696259591519412</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>0.61842982320107</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>88016</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B55" t="n">
         <v>0.8530726703484851</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>0.7595058192184952</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>93205</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B56" t="n">
         <v>0.9445287489262721</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>0.8544608165379162</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>96972</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B57" t="n">
         <v>1.077978886254211</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>0.9738328131680454</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>101714</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B58" t="n">
         <v>1.147581129724236</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>1.038944811329934</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>103988</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B59" t="n">
         <v>1.263112391605637</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>1.158316807960063</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>109173</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B60" t="n">
         <v>1.362008223664768</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>1.264123804973132</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>113727</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B61" t="n">
         <v>-1.537850887613035</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>-1.603517114073379</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>5802</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B62" t="n">
         <v>-1.426332156282237</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>-1.47058011782619</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>11868</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B63" t="n">
         <v>-1.332788715590252</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>-1.353921121119473</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>16197</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B64" t="n">
         <v>-1.197914094657354</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>-1.220984124872283</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>22097</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B65" t="n">
         <v>-1.131901267795864</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>-1.161298126557219</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>24963</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B66" t="n">
         <v>-0.9910113769865799</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>-1.025648130386618</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>30939</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B67" t="n">
         <v>-0.821340410728412</v>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>-0.8899981342160164</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>36142</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B68" t="n">
         <v>-0.6953582344779562</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>-0.7652001377390631</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>40911</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B69" t="n">
         <v>-0.5723025963267968</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>-0.6458281411089341</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>45840</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B70" t="n">
         <v>-0.4902255434648289</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>-0.5590121435597493</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>49103</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B71" t="n">
         <v>-0.3569587555117856</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>-0.423362147389148</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>53891</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B72" t="n">
         <v>-0.3054798925602978</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>-0.3772411486911435</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>55623</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B73" t="n">
         <v>-0.1483776858708123</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>-0.2470171523673663</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>60466</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B74" t="n">
         <v>0.01110101079328344</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>-0.114080156120177</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>66000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B75" t="n">
         <v>0.149092571099409</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>-0.0001341593368719216</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>70960</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B76" t="n">
         <v>0.276562698046134</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>0.1246638371400813</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>76332</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B77" t="n">
         <v>0.3610373965798154</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>0.2169058345360901</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>80053</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B78" t="n">
         <v>0.4790539865021997</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>0.3444168309364554</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>85231</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B79" t="n">
         <v>0.5567588619628085</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>0.414954828945168</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>87930</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B80" t="n">
         <v>0.7061389653810319</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>0.5316138256518851</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>92854</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B81" t="n">
         <v>0.8356322256227837</v>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>0.6564118221288383</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>97581</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B82" t="n">
         <v>0.9353531298689471</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>0.7540798193716712</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>101938</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B83" t="n">
         <v>0.9424050289033975</v>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>0.7649318190653194</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>102453</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B84" t="n">
         <v>1.012091895161836</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>0.835469817074032</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>106082</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B85" t="n">
         <v>1.12023053817952</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>0.9494158138573371</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>111200</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B86" t="n">
         <v>1.18964943227465</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>1.022666811789462</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>114457</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B87" t="n">
         <v>1.327048633061881</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>1.147464808266415</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>119935</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B88" t="n">
         <v>1.456859990488043</v>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>1.253271805279484</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>124394</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B89" t="n">
         <v>1.511639142187653</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>1.315670803517961</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>127319</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B90" t="n">
         <v>1.620943577221634</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>1.429616800301266</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>132222</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B91" t="n">
         <v>1.734197075714907</v>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>1.532710797390923</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>136959</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B92" t="n">
         <v>-1.57923143114719</v>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>-1.625221113460675</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>4794</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B93" t="n">
         <v>-1.505329757941762</v>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>-1.551970115528551</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>8007</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B94" t="n">
         <v>-1.385165398394728</v>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>-1.435311118821833</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>13178</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B95" t="n">
         <v>-1.272610037905865</v>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>-1.332217121732177</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>18291</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B96" t="n">
         <v>-1.154681130352752</v>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>-1.210132125178635</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>23724</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B97" t="n">
         <v>-1.054128102020524</v>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>-1.090760128548506</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>29276</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B98" t="n">
         <v>-0.9864580788859376</v>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>-1.025648130386618</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>32692</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="B99" t="n">
         <v>-0.8605534735248606</v>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>-0.8899981342160164</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>39251</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B100" t="n">
         <v>-0.7761986572747649</v>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>-0.8086081365136556</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>42994</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B101" t="n">
         <v>-0.6494548759285882</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>-0.6783841401898784</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>49626</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B102" t="n">
         <v>-0.5165406829272674</v>
       </c>
-      <c r="B102" t="n">
+      <c r="C102" t="n">
         <v>-0.5427341440192771</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>56135</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B103" t="n">
         <v>-0.397250758860505</v>
       </c>
-      <c r="B103" t="n">
+      <c r="C103" t="n">
         <v>-0.42607514731256</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>62288</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B104" t="n">
         <v>-0.2861057781785324</v>
       </c>
-      <c r="B104" t="n">
+      <c r="C104" t="n">
         <v>-0.3039901507590188</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>68749</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B105" t="n">
         <v>-0.2366837942558125</v>
       </c>
-      <c r="B105" t="n">
+      <c r="C105" t="n">
         <v>-0.2470171523673663</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>71366</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="B106" t="n">
         <v>-0.1308629973448501</v>
       </c>
-      <c r="B106" t="n">
+      <c r="C106" t="n">
         <v>-0.1412101553542973</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>75984</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B107" t="n">
         <v>-0.05970228418821107</v>
       </c>
-      <c r="B107" t="n">
+      <c r="C107" t="n">
         <v>-0.07881115711582067</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>78901</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B108" t="n">
         <v>0.02670463468090929</v>
       </c>
-      <c r="B108" t="n">
+      <c r="C108" t="n">
         <v>0.01343084028018821</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>83512</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B109" t="n">
         <v>0.1162567005193949</v>
       </c>
-      <c r="B109" t="n">
+      <c r="C109" t="n">
         <v>0.100246837829373</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>87407</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B110" t="n">
         <v>0.1493512626880704</v>
       </c>
-      <c r="B110" t="n">
+      <c r="C110" t="n">
         <v>0.1463678365273775</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>89174</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B111" t="n">
         <v>0.1698259642708926</v>
       </c>
-      <c r="B111" t="n">
+      <c r="C111" t="n">
         <v>0.1653588359912616</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>89997</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B112" t="n">
         <v>0.1698259642708926</v>
       </c>
-      <c r="B112" t="n">
+      <c r="C112" t="n">
         <v>0.1653588359912616</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>89997</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="B113" t="n">
         <v>0.1698259642708926</v>
       </c>
-      <c r="B113" t="n">
+      <c r="C113" t="n">
         <v>0.1653588359912616</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>89997</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B114" t="n">
         <v>0.1698259642708926</v>
       </c>
-      <c r="B114" t="n">
+      <c r="C114" t="n">
         <v>0.1653588359912616</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>89997</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B115" t="n">
         <v>0.2008261413728473</v>
       </c>
-      <c r="B115" t="n">
+      <c r="C115" t="n">
         <v>0.1897758353019699</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>91234</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B116" t="n">
         <v>0.26481507321145</v>
       </c>
-      <c r="B116" t="n">
+      <c r="C116" t="n">
         <v>0.2548878334638585</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>94846</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B117" t="n">
         <v>0.3515463794361554</v>
       </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
         <v>0.3552688306301034</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>100866</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B118" t="n">
         <v>0.4398573110445775</v>
       </c>
-      <c r="B118" t="n">
+      <c r="C118" t="n">
         <v>0.4556498277963484</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>106793</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B119" t="n">
         <v>0.4925067892357843</v>
       </c>
-      <c r="B119" t="n">
+      <c r="C119" t="n">
         <v>0.5343268255752972</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>111638</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B120" t="n">
         <v>0.5876157515134168</v>
       </c>
-      <c r="B120" t="n">
+      <c r="C120" t="n">
         <v>0.6536988222054263</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>118596</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B121" t="n">
         <v>0.6367745396825705</v>
       </c>
-      <c r="B121" t="n">
+      <c r="C121" t="n">
         <v>0.7188108203673149</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>122456</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B122" t="n">
         <v>-1.621930679800787</v>
       </c>
-      <c r="B122" t="n">
+      <c r="C122" t="n">
         <v>-1.641499113001148</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>6189</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B123" t="n">
         <v>-1.521525741348282</v>
       </c>
-      <c r="B123" t="n">
+      <c r="C123" t="n">
         <v>-1.513988116600782</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>14245</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B124" t="n">
         <v>-1.409943542926174</v>
       </c>
-      <c r="B124" t="n">
+      <c r="C124" t="n">
         <v>-1.381051120353593</v>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>22027</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B125" t="n">
         <v>-1.297804244480344</v>
       </c>
-      <c r="B125" t="n">
+      <c r="C125" t="n">
         <v>-1.24268812425958</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>29932</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B126" t="n">
         <v>-1.238533033095788</v>
       </c>
-      <c r="B126" t="n">
+      <c r="C126" t="n">
         <v>-1.153159126786983</v>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>35854</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B127" t="n">
         <v>-1.13817040603749</v>
       </c>
-      <c r="B127" t="n">
+      <c r="C127" t="n">
         <v>-1.031074130233442</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>44274</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B128" t="n">
         <v>-1.073017910858203</v>
       </c>
-      <c r="B128" t="n">
+      <c r="C128" t="n">
         <v>-0.9442581326842568</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>49756</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B129" t="n">
         <v>-0.9616472694071285</v>
       </c>
-      <c r="B129" t="n">
+      <c r="C129" t="n">
         <v>-0.8140341363604796</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>57730</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B130" t="n">
         <v>-0.8496842684371598</v>
       </c>
-      <c r="B130" t="n">
+      <c r="C130" t="n">
         <v>-0.6675321404962302</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>65262</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B131" t="n">
         <v>-0.7455206677992932</v>
       </c>
-      <c r="B131" t="n">
+      <c r="C131" t="n">
         <v>-0.529169144402217</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>73077</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B132" t="n">
         <v>-0.6531831018421996</v>
       </c>
-      <c r="B132" t="n">
+      <c r="C132" t="n">
         <v>-0.3962321481550277</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>79827</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B133" t="n">
         <v>-0.5799843898646045</v>
       </c>
-      <c r="B133" t="n">
+      <c r="C133" t="n">
         <v>-0.3094161506058429</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>83880</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B134" t="n">
         <v>-0.4575070074342703</v>
       </c>
-      <c r="B134" t="n">
+      <c r="C134" t="n">
         <v>-0.1710531545118295</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>91155</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B135" t="n">
         <v>-0.3843153473557098</v>
       </c>
-      <c r="B135" t="n">
+      <c r="C135" t="n">
         <v>-0.08695015688605674</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>95396</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B136" t="n">
         <v>-0.2812588948662523</v>
       </c>
-      <c r="B136" t="n">
+      <c r="C136" t="n">
         <v>0.03784783959089644</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>101957</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B137" t="n">
         <v>-0.1878353364578531</v>
       </c>
-      <c r="B137" t="n">
+      <c r="C137" t="n">
         <v>0.1626458360678496</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>107827</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B138" t="n">
         <v>-0.09319885141552879</v>
       </c>
-      <c r="B138" t="n">
+      <c r="C138" t="n">
         <v>0.2738788329277427</v>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>113115</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B139" t="n">
         <v>-0.01038134915494346</v>
       </c>
-      <c r="B139" t="n">
+      <c r="C139" t="n">
         <v>0.3688338302471636</v>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>117855</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B140" t="n">
         <v>0.06941088841986236</v>
       </c>
-      <c r="B140" t="n">
+      <c r="C140" t="n">
         <v>0.4529368278729364</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>122463</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="B141" t="n">
         <v>0.1822201172739647</v>
       </c>
-      <c r="B141" t="n">
+      <c r="C141" t="n">
         <v>0.5723088245030655</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>128969</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B142" t="n">
         <v>0.257435672375413</v>
       </c>
-      <c r="B142" t="n">
+      <c r="C142" t="n">
         <v>0.6482728223586023</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>133339</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="B143" t="n">
         <v>0.3545473739788296</v>
       </c>
-      <c r="B143" t="n">
+      <c r="C143" t="n">
         <v>0.7649318190653194</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>140175</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B144" t="n">
         <v>0.4474279361615759</v>
       </c>
-      <c r="B144" t="n">
+      <c r="C144" t="n">
         <v>0.8761648159252124</v>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>146134</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="B145" t="n">
         <v>0.5574164054018987</v>
       </c>
-      <c r="B145" t="n">
+      <c r="C145" t="n">
         <v>1.011814812095814</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>153301</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B146" t="n">
         <v>0.6767768484590063</v>
       </c>
-      <c r="B146" t="n">
+      <c r="C146" t="n">
         <v>1.161029807883475</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>160942</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B147" t="n">
         <v>0.7599963089645552</v>
       </c>
-      <c r="B147" t="n">
+      <c r="C147" t="n">
         <v>1.266836804896544</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>166388</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B148" t="n">
         <v>0.8639342488333193</v>
       </c>
-      <c r="B148" t="n">
+      <c r="C148" t="n">
         <v>1.410625800837382</v>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>173380</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B149" t="n">
         <v>0.9292771452865367</v>
       </c>
-      <c r="B149" t="n">
+      <c r="C149" t="n">
         <v>1.492015798539742</v>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>177403</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="B150" t="n">
         <v>1.016805316102135</v>
       </c>
-      <c r="B150" t="n">
+      <c r="C150" t="n">
         <v>1.633091794557168</v>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>184449</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B151" t="n">
         <v>1.129699167744651</v>
       </c>
-      <c r="B151" t="n">
+      <c r="C151" t="n">
         <v>1.785019790268241</v>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>191924</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B152" t="n">
         <v>1.242515448497789</v>
       </c>
-      <c r="B152" t="n">
+      <c r="C152" t="n">
         <v>1.936947785979314</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>198344</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B153" t="n">
         <v>-1.585465309893644</v>
       </c>
-      <c r="B153" t="n">
+      <c r="C153" t="n">
         <v>-1.627934113384087</v>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>6428</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B154" t="n">
         <v>-1.528337875815561</v>
       </c>
-      <c r="B154" t="n">
+      <c r="C154" t="n">
         <v>-1.532979116064666</v>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>11253</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
+        <v>45080</v>
+      </c>
+      <c r="B155" t="n">
         <v>-1.430253012145391</v>
       </c>
-      <c r="B155" t="n">
+      <c r="C155" t="n">
         <v>-1.386477120200417</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>18845</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B156" t="n">
         <v>-1.36772382340692</v>
       </c>
-      <c r="B156" t="n">
+      <c r="C156" t="n">
         <v>-1.305087122498056</v>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>23302</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B157" t="n">
         <v>-1.269674219231921</v>
       </c>
-      <c r="B157" t="n">
+      <c r="C157" t="n">
         <v>-1.153159126786983</v>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>31168</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B158" t="n">
         <v>-1.150193893891229</v>
       </c>
-      <c r="B158" t="n">
+      <c r="C158" t="n">
         <v>-1.012083130769557</v>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>39696</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B159" t="n">
         <v>-1.064040843387349</v>
       </c>
-      <c r="B159" t="n">
+      <c r="C159" t="n">
         <v>-0.8954241340628404</v>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>46302</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B160" t="n">
         <v>-0.9862301894412228</v>
       </c>
-      <c r="B160" t="n">
+      <c r="C160" t="n">
         <v>-0.7841911372029473</v>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>52601</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B161" t="n">
         <v>-0.9085394177786831</v>
       </c>
-      <c r="B161" t="n">
+      <c r="C161" t="n">
         <v>-0.7028011395005865</v>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>57502</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="B162" t="n">
         <v>-0.7875429341455834</v>
       </c>
-      <c r="B162" t="n">
+      <c r="C162" t="n">
         <v>-0.5562991436363371</v>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>66202</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B163" t="n">
         <v>-0.7247810327389749</v>
       </c>
-      <c r="B163" t="n">
+      <c r="C163" t="n">
         <v>-0.4857611456276245</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>70241</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B164" t="n">
         <v>-0.6035095250435316</v>
       </c>
-      <c r="B164" t="n">
+      <c r="C164" t="n">
         <v>-0.3419721496867872</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>78729</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B165" t="n">
         <v>-0.5092608944481023</v>
       </c>
-      <c r="B165" t="n">
+      <c r="C165" t="n">
         <v>-0.2361651526737182</v>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>85014</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B166" t="n">
         <v>-0.3814452244486892</v>
       </c>
-      <c r="B166" t="n">
+      <c r="C166" t="n">
         <v>-0.08695015688605674</v>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>93880</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B167" t="n">
         <v>-0.2719715438378816</v>
       </c>
-      <c r="B167" t="n">
+      <c r="C167" t="n">
         <v>0.04056083951430847</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>101932</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B168" t="n">
         <v>-0.1933640253008633</v>
       </c>
-      <c r="B168" t="n">
+      <c r="C168" t="n">
         <v>0.1328028369103173</v>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>107819</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="B169" t="n">
         <v>-0.06619007811358499</v>
       </c>
-      <c r="B169" t="n">
+      <c r="C169" t="n">
         <v>0.2711658330043307</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>116298</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B170" t="n">
         <v>0.02116884712518643</v>
       </c>
-      <c r="B170" t="n">
+      <c r="C170" t="n">
         <v>0.3417038310130433</v>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>120320</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B171" t="n">
         <v>0.1319964923506089</v>
       </c>
-      <c r="B171" t="n">
+      <c r="C171" t="n">
         <v>0.4610758276431725</v>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>128048</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B172" t="n">
         <v>0.2532186367528107</v>
       </c>
-      <c r="B172" t="n">
+      <c r="C172" t="n">
         <v>0.5885868240435377</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>135151</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B173" t="n">
         <v>0.3595189627981162</v>
       </c>
-      <c r="B173" t="n">
+      <c r="C173" t="n">
         <v>0.6943938210566066</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>142673</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B174" t="n">
         <v>0.4809597160703863</v>
       </c>
-      <c r="B174" t="n">
+      <c r="C174" t="n">
         <v>0.830043817227208</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>150567</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B175" t="n">
         <v>0.5307038118593996</v>
       </c>
-      <c r="B175" t="n">
+      <c r="C175" t="n">
         <v>0.8951558153890966</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>153801</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="B176" t="n">
         <v>0.625086428536484</v>
       </c>
-      <c r="B176" t="n">
+      <c r="C176" t="n">
         <v>1.014527812019226</v>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>161504</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B177" t="n">
         <v>0.72649273665188</v>
       </c>
-      <c r="B177" t="n">
+      <c r="C177" t="n">
         <v>1.106769809415235</v>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>166815</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B178" t="n">
         <v>0.8535961648488144</v>
       </c>
-      <c r="B178" t="n">
+      <c r="C178" t="n">
         <v>1.236993805739012</v>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>174480</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B179" t="n">
         <v>0.9665464316836065</v>
       </c>
-      <c r="B179" t="n">
+      <c r="C179" t="n">
         <v>1.361791802215965</v>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>181324</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B180" t="n">
         <v>1.019971618768603</v>
       </c>
-      <c r="B180" t="n">
+      <c r="C180" t="n">
         <v>1.426903800377854</v>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>184635</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B181" t="n">
         <v>1.02904741282594</v>
       </c>
-      <c r="B181" t="n">
+      <c r="C181" t="n">
         <v>1.443181799918326</v>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>185751</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B182" t="n">
         <v>-1.641866398371178</v>
       </c>
-      <c r="B182" t="n">
+      <c r="C182" t="n">
         <v>-1.665916112311856</v>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>4092</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B183" t="n">
         <v>-1.599815924428751</v>
       </c>
-      <c r="B183" t="n">
+      <c r="C183" t="n">
         <v>-1.619795113613851</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>7028</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B184" t="n">
         <v>-1.518726137431605</v>
       </c>
-      <c r="B184" t="n">
+      <c r="C184" t="n">
         <v>-1.51127511667737</v>
       </c>
-      <c r="C184" t="n">
+      <c r="D184" t="n">
         <v>13491</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B185" t="n">
         <v>-1.430937046351733</v>
       </c>
-      <c r="B185" t="n">
+      <c r="C185" t="n">
         <v>-1.416320119357949</v>
       </c>
-      <c r="C185" t="n">
+      <c r="D185" t="n">
         <v>19256</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B186" t="n">
         <v>-1.310138015891598</v>
       </c>
-      <c r="B186" t="n">
+      <c r="C186" t="n">
         <v>-1.264392123646876</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>28261</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B187" t="n">
         <v>-1.175221083564493</v>
       </c>
-      <c r="B187" t="n">
+      <c r="C187" t="n">
         <v>-1.107038128088979</v>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>36957</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B188" t="n">
         <v>-1.099765763895874</v>
       </c>
-      <c r="B188" t="n">
+      <c r="C188" t="n">
         <v>-1.009370130846146</v>
       </c>
-      <c r="C188" t="n">
+      <c r="D188" t="n">
         <v>41406</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
+        <v>45115</v>
+      </c>
+      <c r="B189" t="n">
         <v>-0.9997932199600833</v>
       </c>
-      <c r="B189" t="n">
+      <c r="C189" t="n">
         <v>-0.8737201346755442</v>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>48775</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B190" t="n">
         <v>-0.916785316425568</v>
       </c>
-      <c r="B190" t="n">
+      <c r="C190" t="n">
         <v>-0.7706261375858873</v>
       </c>
-      <c r="C190" t="n">
+      <c r="D190" t="n">
         <v>54145</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B191" t="n">
         <v>-0.7995968582710719</v>
       </c>
-      <c r="B191" t="n">
+      <c r="C191" t="n">
         <v>-0.6186981418748138</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>62039</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B192" t="n">
         <v>-0.6705753135367676</v>
       </c>
-      <c r="B192" t="n">
+      <c r="C192" t="n">
         <v>-0.4559181464700923</v>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>70568</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B193" t="n">
         <v>-0.5676237533325278</v>
       </c>
-      <c r="B193" t="n">
+      <c r="C193" t="n">
         <v>-0.3148421504526669</v>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>77889</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B194" t="n">
         <v>-0.4364584312917507</v>
       </c>
-      <c r="B194" t="n">
+      <c r="C194" t="n">
         <v>-0.1547751549713574</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>86673</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B195" t="n">
         <v>-0.366031115634695</v>
       </c>
-      <c r="B195" t="n">
+      <c r="C195" t="n">
         <v>-0.04354215811146434</v>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>93046</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B196" t="n">
         <v>-0.2703580014343067</v>
       </c>
-      <c r="B196" t="n">
+      <c r="C196" t="n">
         <v>0.09482083798254898</v>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>101523</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B197" t="n">
         <v>-0.1995216756332529</v>
       </c>
-      <c r="B197" t="n">
+      <c r="C197" t="n">
         <v>0.1653588359912616</v>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>105741</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B198" t="n">
         <v>-0.06569778765648739</v>
       </c>
-      <c r="B198" t="n">
+      <c r="C198" t="n">
         <v>0.3118608318555111</v>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
         <v>114513</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B199" t="n">
         <v>0.07955017675608733</v>
       </c>
-      <c r="B199" t="n">
+      <c r="C199" t="n">
         <v>0.4746408272602326</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>123018</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B200" t="n">
         <v>0.1760796094254565</v>
       </c>
-      <c r="B200" t="n">
+      <c r="C200" t="n">
         <v>0.5940128238903617</v>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>128821</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B201" t="n">
         <v>0.2791713214100864</v>
       </c>
-      <c r="B201" t="n">
+      <c r="C201" t="n">
         <v>0.7350888199077871</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>136909</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B202" t="n">
         <v>0.363624864246664</v>
       </c>
-      <c r="B202" t="n">
+      <c r="C202" t="n">
         <v>0.83275681715062</v>
       </c>
-      <c r="C202" t="n">
+      <c r="D202" t="n">
         <v>143027</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B203" t="n">
         <v>0.4927169279713127</v>
       </c>
-      <c r="B203" t="n">
+      <c r="C203" t="n">
         <v>0.9873978127851054</v>
       </c>
-      <c r="C203" t="n">
+      <c r="D203" t="n">
         <v>151507</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B204" t="n">
         <v>0.5891234396712842</v>
       </c>
-      <c r="B204" t="n">
+      <c r="C204" t="n">
         <v>1.090491809874762</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>157440</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B205" t="n">
         <v>0.7197739730825464</v>
       </c>
-      <c r="B205" t="n">
+      <c r="C205" t="n">
         <v>1.228854805968776</v>
       </c>
-      <c r="C205" t="n">
+      <c r="D205" t="n">
         <v>165970</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B206" t="n">
         <v>0.8661079299464265</v>
       </c>
-      <c r="B206" t="n">
+      <c r="C206" t="n">
         <v>1.372643801909613</v>
       </c>
-      <c r="C206" t="n">
+      <c r="D206" t="n">
         <v>174241</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B207" t="n">
         <v>0.9975271203524438</v>
       </c>
-      <c r="B207" t="n">
+      <c r="C207" t="n">
         <v>1.527284797544099</v>
       </c>
-      <c r="C207" t="n">
+      <c r="D207" t="n">
         <v>183064</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B208" t="n">
         <v>1.157041076511712</v>
       </c>
-      <c r="B208" t="n">
+      <c r="C208" t="n">
         <v>1.684638793101996</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>191130</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B209" t="n">
         <v>1.247411162638193</v>
       </c>
-      <c r="B209" t="n">
+      <c r="C209" t="n">
         <v>1.782306790344829</v>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>196193</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B210" t="n">
         <v>1.418236364848719</v>
       </c>
-      <c r="B210" t="n">
+      <c r="C210" t="n">
         <v>1.920669786438842</v>
       </c>
-      <c r="C210" t="n">
+      <c r="D210" t="n">
         <v>204563</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B211" t="n">
         <v>1.554464950396231</v>
       </c>
-      <c r="B211" t="n">
+      <c r="C211" t="n">
         <v>2.048180782839208</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>210804</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B212" t="n">
         <v>1.640667364193352</v>
       </c>
-      <c r="B212" t="n">
+      <c r="C212" t="n">
         <v>2.156700779775689</v>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>217040</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B213" t="n">
         <v>-1.598920333251375</v>
       </c>
-      <c r="B213" t="n">
+      <c r="C213" t="n">
         <v>-1.633360113230911</v>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>4883</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B214" t="n">
         <v>-1.476435898922007</v>
       </c>
-      <c r="B214" t="n">
+      <c r="C214" t="n">
         <v>-1.51127511667737</v>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>12067</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B215" t="n">
         <v>-1.342104274214761</v>
       </c>
-      <c r="B215" t="n">
+      <c r="C215" t="n">
         <v>-1.391903120047241</v>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>19420</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B216" t="n">
         <v>-1.27014669646723</v>
       </c>
-      <c r="B216" t="n">
+      <c r="C216" t="n">
         <v>-1.31051312234488</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>24169</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
+        <v>45143</v>
+      </c>
+      <c r="B217" t="n">
         <v>-1.120420776167779</v>
       </c>
-      <c r="B217" t="n">
+      <c r="C217" t="n">
         <v>-1.169437126327455</v>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>33255</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B218" t="n">
         <v>-1.04355507669227</v>
       </c>
-      <c r="B218" t="n">
+      <c r="C218" t="n">
         <v>-1.08262112877827</v>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>38394</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B219" t="n">
         <v>-0.9122134571756315</v>
       </c>
-      <c r="B219" t="n">
+      <c r="C219" t="n">
         <v>-0.949684132531081</v>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>46564</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B220" t="n">
         <v>-0.7745462842250913</v>
       </c>
-      <c r="B220" t="n">
+      <c r="C220" t="n">
         <v>-0.8086081365136556</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>55357</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B221" t="n">
         <v>-0.6357014441357977</v>
       </c>
-      <c r="B221" t="n">
+      <c r="C221" t="n">
         <v>-0.6702451404196422</v>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>64504</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B222" t="n">
         <v>-0.4674008217796051</v>
       </c>
-      <c r="B222" t="n">
+      <c r="C222" t="n">
         <v>-0.526456144478805</v>
       </c>
-      <c r="C222" t="n">
+      <c r="D222" t="n">
         <v>73555</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B223" t="n">
         <v>-0.3965362883824132</v>
       </c>
-      <c r="B223" t="n">
+      <c r="C223" t="n">
         <v>-0.4586311463935043</v>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>78108</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="B224" t="n">
         <v>-0.2965333081748723</v>
       </c>
-      <c r="B224" t="n">
+      <c r="C224" t="n">
         <v>-0.3718151488443194</v>
       </c>
-      <c r="C224" t="n">
+      <c r="D224" t="n">
         <v>83157</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
+        <v>45151</v>
+      </c>
+      <c r="B225" t="n">
         <v>-0.2218043341068016</v>
       </c>
-      <c r="B225" t="n">
+      <c r="C225" t="n">
         <v>-0.2958511509887827</v>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>87227</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B226" t="n">
         <v>-0.1114421142176528</v>
       </c>
-      <c r="B226" t="n">
+      <c r="C226" t="n">
         <v>-0.1954701538225378</v>
       </c>
-      <c r="C226" t="n">
+      <c r="D226" t="n">
         <v>93669</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B227" t="n">
         <v>0.05348064850103852</v>
       </c>
-      <c r="B227" t="n">
+      <c r="C227" t="n">
         <v>-0.05439415780511243</v>
       </c>
-      <c r="C227" t="n">
+      <c r="D227" t="n">
         <v>102534</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B228" t="n">
         <v>0.1886514491933833</v>
       </c>
-      <c r="B228" t="n">
+      <c r="C228" t="n">
         <v>0.0866818382123129</v>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>111957</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B229" t="n">
         <v>0.3023633211238957</v>
       </c>
-      <c r="B229" t="n">
+      <c r="C229" t="n">
         <v>0.1924888352253819</v>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>118286</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B230" t="n">
         <v>0.4245092642996112</v>
       </c>
-      <c r="B230" t="n">
+      <c r="C230" t="n">
         <v>0.3010088321618629</v>
       </c>
-      <c r="C230" t="n">
+      <c r="D230" t="n">
         <v>125075</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
+        <v>45157</v>
+      </c>
+      <c r="B231" t="n">
         <v>0.5784672556365231</v>
       </c>
-      <c r="B231" t="n">
+      <c r="C231" t="n">
         <v>0.4529368278729364</v>
       </c>
-      <c r="C231" t="n">
+      <c r="D231" t="n">
         <v>134295</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B232" t="n">
         <v>0.6925599301148956</v>
       </c>
-      <c r="B232" t="n">
+      <c r="C232" t="n">
         <v>0.5506048251157694</v>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>140432</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B233" t="n">
         <v>0.8309816562621224</v>
       </c>
-      <c r="B233" t="n">
+      <c r="C233" t="n">
         <v>0.6781158215161345</v>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>148475</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B234" t="n">
         <v>0.9847271590112097</v>
       </c>
-      <c r="B234" t="n">
+      <c r="C234" t="n">
         <v>0.8219048174569719</v>
       </c>
-      <c r="C234" t="n">
+      <c r="D234" t="n">
         <v>157270</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B235" t="n">
         <v>1.145552768390885</v>
       </c>
-      <c r="B235" t="n">
+      <c r="C235" t="n">
         <v>0.9629808134743972</v>
       </c>
-      <c r="C235" t="n">
+      <c r="D235" t="n">
         <v>165886</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B236" t="n">
         <v>1.303346061185746</v>
       </c>
-      <c r="B236" t="n">
+      <c r="C236" t="n">
         <v>1.114908809185471</v>
       </c>
-      <c r="C236" t="n">
+      <c r="D236" t="n">
         <v>174818</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B237" t="n">
         <v>1.41460387225227</v>
       </c>
-      <c r="B237" t="n">
+      <c r="C237" t="n">
         <v>1.218002806275128</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>180944</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="B238" t="n">
         <v>1.588877453090642</v>
       </c>
-      <c r="B238" t="n">
+      <c r="C238" t="n">
         <v>1.359078802292553</v>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>189612</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B239" t="n">
         <v>1.689197768754733</v>
       </c>
-      <c r="B239" t="n">
+      <c r="C239" t="n">
         <v>1.454033799611974</v>
       </c>
-      <c r="C239" t="n">
+      <c r="D239" t="n">
         <v>194930</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B240" t="n">
         <v>1.859099172191746</v>
       </c>
-      <c r="B240" t="n">
+      <c r="C240" t="n">
         <v>1.592396795705987</v>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>203095</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B241" t="n">
         <v>2.035791554398934</v>
       </c>
-      <c r="B241" t="n">
+      <c r="C241" t="n">
         <v>1.738898791570237</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>210921</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B242" t="n">
         <v>2.195721572601234</v>
       </c>
-      <c r="B242" t="n">
+      <c r="C242" t="n">
         <v>1.885400787434486</v>
       </c>
-      <c r="C242" t="n">
+      <c r="D242" t="n">
         <v>219435</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B243" t="n">
         <v>2.349551698138733</v>
       </c>
-      <c r="B243" t="n">
+      <c r="C243" t="n">
         <v>2.021050783605087</v>
       </c>
-      <c r="C243" t="n">
+      <c r="D243" t="n">
         <v>227695</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B244" t="n">
         <v>-1.640082267915462</v>
       </c>
-      <c r="B244" t="n">
+      <c r="C244" t="n">
         <v>-1.679481111928916</v>
       </c>
-      <c r="C244" t="n">
+      <c r="D244" t="n">
         <v>2906</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="B245" t="n">
         <v>-1.531497126582995</v>
       </c>
-      <c r="B245" t="n">
+      <c r="C245" t="n">
         <v>-1.565535115145611</v>
       </c>
-      <c r="C245" t="n">
+      <c r="D245" t="n">
         <v>7980</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B246" t="n">
         <v>-1.456993813284027</v>
       </c>
-      <c r="B246" t="n">
+      <c r="C246" t="n">
         <v>-1.500423116983722</v>
       </c>
-      <c r="C246" t="n">
+      <c r="D246" t="n">
         <v>10837</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B247" t="n">
         <v>-1.311407357717799</v>
       </c>
-      <c r="B247" t="n">
+      <c r="C247" t="n">
         <v>-1.367486120736533</v>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
         <v>17139</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B248" t="n">
         <v>-1.166582507247291</v>
       </c>
-      <c r="B248" t="n">
+      <c r="C248" t="n">
         <v>-1.231836124565932</v>
       </c>
-      <c r="C248" t="n">
+      <c r="D248" t="n">
         <v>23220</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B249" t="n">
         <v>-1.041481818376141</v>
       </c>
-      <c r="B249" t="n">
+      <c r="C249" t="n">
         <v>-1.117890127782627</v>
       </c>
-      <c r="C249" t="n">
+      <c r="D249" t="n">
         <v>28942</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B250" t="n">
         <v>-0.8859592370703726</v>
       </c>
-      <c r="B250" t="n">
+      <c r="C250" t="n">
         <v>-0.9795271316886132</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>35515</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B251" t="n">
         <v>-0.8251295559992036</v>
       </c>
-      <c r="B251" t="n">
+      <c r="C251" t="n">
         <v>-0.8981371339862524</v>
       </c>
-      <c r="C251" t="n">
+      <c r="D251" t="n">
         <v>39489</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="B252" t="n">
         <v>-0.6833581778106133</v>
       </c>
-      <c r="B252" t="n">
+      <c r="C252" t="n">
         <v>-0.7733391375092993</v>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>47103</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B253" t="n">
         <v>-0.6053218630953855</v>
       </c>
-      <c r="B253" t="n">
+      <c r="C253" t="n">
         <v>-0.7000881395771745</v>
       </c>
-      <c r="C253" t="n">
+      <c r="D253" t="n">
         <v>51569</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B254" t="n">
         <v>-0.4718153105751709</v>
       </c>
-      <c r="B254" t="n">
+      <c r="C254" t="n">
         <v>-0.5617251434831613</v>
       </c>
-      <c r="C254" t="n">
+      <c r="D254" t="n">
         <v>59778</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B255" t="n">
         <v>-0.3178300432589124</v>
       </c>
-      <c r="B255" t="n">
+      <c r="C255" t="n">
         <v>-0.42607514731256</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>67348</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B256" t="n">
         <v>-0.1498679120563728</v>
       </c>
-      <c r="B256" t="n">
+      <c r="C256" t="n">
         <v>-0.2904251511419587</v>
       </c>
-      <c r="C256" t="n">
+      <c r="D256" t="n">
         <v>74942</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B257" t="n">
         <v>-0.02339210287350493</v>
       </c>
-      <c r="B257" t="n">
+      <c r="C257" t="n">
         <v>-0.1683401545884175</v>
       </c>
-      <c r="C257" t="n">
+      <c r="D257" t="n">
         <v>82075</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B258" t="n">
         <v>0.06659718070511617</v>
       </c>
-      <c r="B258" t="n">
+      <c r="C258" t="n">
         <v>-0.0815241570392327</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>86691</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="B259" t="n">
         <v>0.1994831661102995</v>
       </c>
-      <c r="B259" t="n">
+      <c r="C259" t="n">
         <v>0.05412583913136859</v>
       </c>
-      <c r="C259" t="n">
+      <c r="D259" t="n">
         <v>93383</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B260" t="n">
         <v>0.2827449380100553</v>
       </c>
-      <c r="B260" t="n">
+      <c r="C260" t="n">
         <v>0.1300898369869053</v>
       </c>
-      <c r="C260" t="n">
+      <c r="D260" t="n">
         <v>97397</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B261" t="n">
         <v>0.4327106228766774</v>
       </c>
-      <c r="B261" t="n">
+      <c r="C261" t="n">
         <v>0.2684528330809186</v>
       </c>
-      <c r="C261" t="n">
+      <c r="D261" t="n">
         <v>105308</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B262" t="n">
         <v>0.5450403225964379</v>
       </c>
-      <c r="B262" t="n">
+      <c r="C262" t="n">
         <v>0.4013898293281079</v>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>113099</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B263" t="n">
         <v>0.6855000475646205</v>
       </c>
-      <c r="B263" t="n">
+      <c r="C263" t="n">
         <v>0.5343268255752972</v>
       </c>
-      <c r="C263" t="n">
+      <c r="D263" t="n">
         <v>120357</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B264" t="n">
         <v>0.8360016767578605</v>
       </c>
-      <c r="B264" t="n">
+      <c r="C264" t="n">
         <v>0.6754028215927225</v>
       </c>
-      <c r="C264" t="n">
+      <c r="D264" t="n">
         <v>127932</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B265" t="n">
         <v>0.9483877916698962</v>
       </c>
-      <c r="B265" t="n">
+      <c r="C265" t="n">
         <v>0.7703578189121434</v>
       </c>
-      <c r="C265" t="n">
+      <c r="D265" t="n">
         <v>133632</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B266" t="n">
         <v>1.121074695225518</v>
       </c>
-      <c r="B266" t="n">
+      <c r="C266" t="n">
         <v>0.9114338149295688</v>
       </c>
-      <c r="C266" t="n">
+      <c r="D266" t="n">
         <v>142288</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B267" t="n">
         <v>1.220273758943131</v>
       </c>
-      <c r="B267" t="n">
+      <c r="C267" t="n">
         <v>1.000962812402166</v>
       </c>
-      <c r="C267" t="n">
+      <c r="D267" t="n">
         <v>147957</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B268" t="n">
         <v>1.355345833048992</v>
       </c>
-      <c r="B268" t="n">
+      <c r="C268" t="n">
         <v>1.139325808496179</v>
       </c>
-      <c r="C268" t="n">
+      <c r="D268" t="n">
         <v>156044</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B269" t="n">
         <v>1.506242368588161</v>
       </c>
-      <c r="B269" t="n">
+      <c r="C269" t="n">
         <v>1.285827804360428</v>
       </c>
-      <c r="C269" t="n">
+      <c r="D269" t="n">
         <v>164651</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B270" t="n">
         <v>1.643789659255116</v>
       </c>
-      <c r="B270" t="n">
+      <c r="C270" t="n">
         <v>1.410625800837382</v>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
         <v>172221</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B271" t="n">
         <v>1.777874467496155</v>
       </c>
-      <c r="B271" t="n">
+      <c r="C271" t="n">
         <v>1.554414796778219</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>179694</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B272" t="n">
         <v>1.891395938152738</v>
       </c>
-      <c r="B272" t="n">
+      <c r="C272" t="n">
         <v>1.6629347937147</v>
       </c>
-      <c r="C272" t="n">
+      <c r="D272" t="n">
         <v>185462</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B273" t="n">
         <v>2.049358476524425</v>
       </c>
-      <c r="B273" t="n">
+      <c r="C273" t="n">
         <v>1.809436789578949</v>
       </c>
-      <c r="C273" t="n">
+      <c r="D273" t="n">
         <v>193016</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B274" t="n">
         <v>-1.636309501932031</v>
       </c>
-      <c r="B274" t="n">
+      <c r="C274" t="n">
         <v>-1.660490112465032</v>
       </c>
-      <c r="C274" t="n">
+      <c r="D274" t="n">
         <v>4014</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B275" t="n">
         <v>-1.524022113606478</v>
       </c>
-      <c r="B275" t="n">
+      <c r="C275" t="n">
         <v>-1.53840511591149</v>
       </c>
-      <c r="C275" t="n">
+      <c r="D275" t="n">
         <v>10872</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B276" t="n">
         <v>-1.38016337330369</v>
       </c>
-      <c r="B276" t="n">
+      <c r="C276" t="n">
         <v>-1.408181119587713</v>
       </c>
-      <c r="C276" t="n">
+      <c r="D276" t="n">
         <v>18161</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B277" t="n">
         <v>-1.247869747417401</v>
       </c>
-      <c r="B277" t="n">
+      <c r="C277" t="n">
         <v>-1.272531123417112</v>
       </c>
-      <c r="C277" t="n">
+      <c r="D277" t="n">
         <v>25482</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B278" t="n">
         <v>-1.106965752810048</v>
       </c>
-      <c r="B278" t="n">
+      <c r="C278" t="n">
         <v>-1.131455127399687</v>
       </c>
-      <c r="C278" t="n">
+      <c r="D278" t="n">
         <v>32643</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B279" t="n">
         <v>-1.025318865789181</v>
       </c>
-      <c r="B279" t="n">
+      <c r="C279" t="n">
         <v>-1.052778129620738</v>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>37540</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B280" t="n">
         <v>-0.8844924420712067</v>
       </c>
-      <c r="B280" t="n">
+      <c r="C280" t="n">
         <v>-0.9225541332969607</v>
       </c>
-      <c r="C280" t="n">
+      <c r="D280" t="n">
         <v>44741</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B281" t="n">
         <v>-0.8000177435375257</v>
       </c>
-      <c r="B281" t="n">
+      <c r="C281" t="n">
         <v>-0.8384511356711879</v>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>49972</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B282" t="n">
         <v>-0.6557147335955676</v>
       </c>
-      <c r="B282" t="n">
+      <c r="C282" t="n">
         <v>-0.7082271393474107</v>
       </c>
-      <c r="C282" t="n">
+      <c r="D282" t="n">
         <v>57623</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B283" t="n">
         <v>-0.5400494856325124</v>
       </c>
-      <c r="B283" t="n">
+      <c r="C283" t="n">
         <v>-0.5698641432533973</v>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>65361</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B284" t="n">
         <v>-0.4086585028226329</v>
       </c>
-      <c r="B284" t="n">
+      <c r="C284" t="n">
         <v>-0.436927147006208</v>
       </c>
-      <c r="C284" t="n">
+      <c r="D284" t="n">
         <v>73470</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B285" t="n">
         <v>-0.2970480968043868</v>
       </c>
-      <c r="B285" t="n">
+      <c r="C285" t="n">
         <v>-0.317555150376079</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>80453</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B286" t="n">
         <v>-0.2226646657890041</v>
       </c>
-      <c r="B286" t="n">
+      <c r="C286" t="n">
         <v>-0.2497301522907783</v>
       </c>
-      <c r="C286" t="n">
+      <c r="D286" t="n">
         <v>84310</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B287" t="n">
         <v>-0.1033042227318968</v>
       </c>
-      <c r="B287" t="n">
+      <c r="C287" t="n">
         <v>-0.1222191558904131</v>
       </c>
-      <c r="C287" t="n">
+      <c r="D287" t="n">
         <v>91370</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B288" t="n">
         <v>-0.01312453787934522</v>
       </c>
-      <c r="B288" t="n">
+      <c r="C288" t="n">
         <v>-0.02726415857099218</v>
       </c>
-      <c r="C288" t="n">
+      <c r="D288" t="n">
         <v>97291</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B289" t="n">
         <v>0.1240278464416801</v>
       </c>
-      <c r="B289" t="n">
+      <c r="C289" t="n">
         <v>0.100246837829373</v>
       </c>
-      <c r="C289" t="n">
+      <c r="D289" t="n">
         <v>104832</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
+      <c r="A290" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B290" t="n">
         <v>0.2489804454331068</v>
       </c>
-      <c r="B290" t="n">
+      <c r="C290" t="n">
         <v>0.2169058345360901</v>
       </c>
-      <c r="C290" t="n">
+      <c r="D290" t="n">
         <v>111496</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B291" t="n">
         <v>0.3865629955952344</v>
       </c>
-      <c r="B291" t="n">
+      <c r="C291" t="n">
         <v>0.3389908310896313</v>
       </c>
-      <c r="C291" t="n">
+      <c r="D291" t="n">
         <v>118852</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B292" t="n">
         <v>0.5303230093115396</v>
       </c>
-      <c r="B292" t="n">
+      <c r="C292" t="n">
         <v>0.4800668271070566</v>
       </c>
-      <c r="C292" t="n">
+      <c r="D292" t="n">
         <v>127680</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B293" t="n">
         <v>0.6108486443859282</v>
       </c>
-      <c r="B293" t="n">
+      <c r="C293" t="n">
         <v>0.5614568248094174</v>
       </c>
-      <c r="C293" t="n">
+      <c r="D293" t="n">
         <v>132703</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
+      <c r="A294" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B294" t="n">
         <v>0.7454200336603451</v>
       </c>
-      <c r="B294" t="n">
+      <c r="C294" t="n">
         <v>0.6943938210566066</v>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>141411</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B295" t="n">
         <v>0.8264886649603869</v>
       </c>
-      <c r="B295" t="n">
+      <c r="C295" t="n">
         <v>0.7757838187589674</v>
       </c>
-      <c r="C295" t="n">
+      <c r="D295" t="n">
         <v>146626</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B296" t="n">
         <v>0.9723501445889583</v>
       </c>
-      <c r="B296" t="n">
+      <c r="C296" t="n">
         <v>0.9168598147763928</v>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>155212</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B297" t="n">
         <v>1.106434952829998</v>
       </c>
-      <c r="B297" t="n">
+      <c r="C297" t="n">
         <v>1.055222810870406</v>
       </c>
-      <c r="C297" t="n">
+      <c r="D297" t="n">
         <v>163986</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B298" t="n">
         <v>1.235823196314093</v>
       </c>
-      <c r="B298" t="n">
+      <c r="C298" t="n">
         <v>1.190872807041007</v>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>172415</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B299" t="n">
         <v>1.383856660845275</v>
       </c>
-      <c r="B299" t="n">
+      <c r="C299" t="n">
         <v>1.321096803364785</v>
       </c>
-      <c r="C299" t="n">
+      <c r="D299" t="n">
         <v>180689</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B300" t="n">
         <v>1.476553873653126</v>
       </c>
-      <c r="B300" t="n">
+      <c r="C300" t="n">
         <v>1.410625800837382</v>
       </c>
-      <c r="C300" t="n">
+      <c r="D300" t="n">
         <v>186467</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B301" t="n">
         <v>1.622034550733837</v>
       </c>
-      <c r="B301" t="n">
+      <c r="C301" t="n">
         <v>1.557127796701631</v>
       </c>
-      <c r="C301" t="n">
+      <c r="D301" t="n">
         <v>196161</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B302" t="n">
         <v>1.733144271920636</v>
       </c>
-      <c r="B302" t="n">
+      <c r="C302" t="n">
         <v>1.6629347937147</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>202528</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B303" t="n">
         <v>1.862997940741006</v>
       </c>
-      <c r="B303" t="n">
+      <c r="C303" t="n">
         <v>1.787732790191653</v>
       </c>
-      <c r="C303" t="n">
+      <c r="D303" t="n">
         <v>209622</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B304" t="n">
         <v>1.980158191299364</v>
       </c>
-      <c r="B304" t="n">
+      <c r="C304" t="n">
         <v>1.90439178689837</v>
       </c>
-      <c r="C304" t="n">
+      <c r="D304" t="n">
         <v>216114</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B305" t="n">
         <v>-1.591346593688375</v>
       </c>
-      <c r="B305" t="n">
+      <c r="C305" t="n">
         <v>-1.617082113690439</v>
       </c>
-      <c r="C305" t="n">
+      <c r="D305" t="n">
         <v>6736</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B306" t="n">
         <v>-1.437354274473083</v>
       </c>
-      <c r="B306" t="n">
+      <c r="C306" t="n">
         <v>-1.481432117519838</v>
       </c>
-      <c r="C306" t="n">
+      <c r="D306" t="n">
         <v>15286</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B307" t="n">
         <v>-1.324961107662012</v>
       </c>
-      <c r="B307" t="n">
+      <c r="C307" t="n">
         <v>-1.378338120430181</v>
       </c>
-      <c r="C307" t="n">
+      <c r="D307" t="n">
         <v>21543</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B308" t="n">
         <v>-1.176582100078142</v>
       </c>
-      <c r="B308" t="n">
+      <c r="C308" t="n">
         <v>-1.239975124336168</v>
       </c>
-      <c r="C308" t="n">
+      <c r="D308" t="n">
         <v>30060</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B309" t="n">
         <v>-1.091924052169565</v>
       </c>
-      <c r="B309" t="n">
+      <c r="C309" t="n">
         <v>-1.158585126633807</v>
       </c>
-      <c r="C309" t="n">
+      <c r="D309" t="n">
         <v>34616</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B310" t="n">
         <v>-0.9591156376537608</v>
       </c>
-      <c r="B310" t="n">
+      <c r="C310" t="n">
         <v>-1.01479613069297</v>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>42844</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B311" t="n">
         <v>-0.8361657779881185</v>
       </c>
-      <c r="B311" t="n">
+      <c r="C311" t="n">
         <v>-0.8899981342160164</v>
       </c>
-      <c r="C311" t="n">
+      <c r="D311" t="n">
         <v>49774</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B312" t="n">
         <v>-0.7129549980582013</v>
       </c>
-      <c r="B312" t="n">
+      <c r="C312" t="n">
         <v>-0.7679131376624752</v>
       </c>
-      <c r="C312" t="n">
+      <c r="D312" t="n">
         <v>56424</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B313" t="n">
         <v>-0.5672557121074217</v>
       </c>
-      <c r="B313" t="n">
+      <c r="C313" t="n">
         <v>-0.6349761414152859</v>
       </c>
-      <c r="C313" t="n">
+      <c r="D313" t="n">
         <v>63919</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
+      <c r="A314" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B314" t="n">
         <v>-0.4532053490232556</v>
       </c>
-      <c r="B314" t="n">
+      <c r="C314" t="n">
         <v>-0.531882144325629</v>
       </c>
-      <c r="C314" t="n">
+      <c r="D314" t="n">
         <v>69625</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
+      <c r="A315" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B315" t="n">
         <v>-0.3221175978718573</v>
       </c>
-      <c r="B315" t="n">
+      <c r="C315" t="n">
         <v>-0.4043711479252637</v>
       </c>
-      <c r="C315" t="n">
+      <c r="D315" t="n">
         <v>77015</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
+      <c r="A316" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B316" t="n">
         <v>-0.2340957941238473</v>
       </c>
-      <c r="B316" t="n">
+      <c r="C316" t="n">
         <v>-0.3338331499165511</v>
       </c>
-      <c r="C316" t="n">
+      <c r="D316" t="n">
         <v>81316</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
+      <c r="A317" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B317" t="n">
         <v>-0.1338459974501007</v>
       </c>
-      <c r="B317" t="n">
+      <c r="C317" t="n">
         <v>-0.2307391528268941</v>
       </c>
-      <c r="C317" t="n">
+      <c r="D317" t="n">
         <v>87896</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
+      <c r="A318" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B318" t="n">
         <v>0.005330281893812129</v>
       </c>
-      <c r="B318" t="n">
+      <c r="C318" t="n">
         <v>-0.0923761567328808</v>
       </c>
-      <c r="C318" t="n">
+      <c r="D318" t="n">
         <v>95706</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
+      <c r="A319" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B319" t="n">
         <v>0.1577782352205607</v>
       </c>
-      <c r="B319" t="n">
+      <c r="C319" t="n">
         <v>0.03513483966748442</v>
       </c>
-      <c r="C319" t="n">
+      <c r="D319" t="n">
         <v>102284</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B320" t="n">
         <v>0.2889858686555445</v>
       </c>
-      <c r="B320" t="n">
+      <c r="C320" t="n">
         <v>0.1626458360678496</v>
       </c>
-      <c r="C320" t="n">
+      <c r="D320" t="n">
         <v>108647</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B321" t="n">
         <v>0.3723252114446793</v>
       </c>
-      <c r="B321" t="n">
+      <c r="C321" t="n">
         <v>0.2331838340765623</v>
       </c>
-      <c r="C321" t="n">
+      <c r="D321" t="n">
         <v>112994</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B322" t="n">
         <v>0.4964456863500407</v>
       </c>
-      <c r="B322" t="n">
+      <c r="C322" t="n">
         <v>0.3471298308598674</v>
       </c>
-      <c r="C322" t="n">
+      <c r="D322" t="n">
         <v>119548</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B323" t="n">
         <v>0.5828314495220579</v>
       </c>
-      <c r="B323" t="n">
+      <c r="C323" t="n">
         <v>0.4366588283324642</v>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>123564</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B324" t="n">
         <v>0.7381142662606555</v>
       </c>
-      <c r="B324" t="n">
+      <c r="C324" t="n">
         <v>0.5885868240435377</v>
       </c>
-      <c r="C324" t="n">
+      <c r="D324" t="n">
         <v>129900</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B325" t="n">
         <v>0.8872055156470056</v>
       </c>
-      <c r="B325" t="n">
+      <c r="C325" t="n">
         <v>0.7215238202907269</v>
       </c>
-      <c r="C325" t="n">
+      <c r="D325" t="n">
         <v>136285</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B326" t="n">
         <v>1.040605475343404</v>
       </c>
-      <c r="B326" t="n">
+      <c r="C326" t="n">
         <v>0.8571738164613282</v>
       </c>
-      <c r="C326" t="n">
+      <c r="D326" t="n">
         <v>141606</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B327" t="n">
         <v>1.198624428907369</v>
       </c>
-      <c r="B327" t="n">
+      <c r="C327" t="n">
         <v>1.00638881224899</v>
       </c>
-      <c r="C327" t="n">
+      <c r="D327" t="n">
         <v>146857</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B328" t="n">
         <v>1.292471101257834</v>
       </c>
-      <c r="B328" t="n">
+      <c r="C328" t="n">
         <v>1.093204809798174</v>
       </c>
-      <c r="C328" t="n">
+      <c r="D328" t="n">
         <v>150473</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
+      <c r="A329" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B329" t="n">
         <v>1.433551393341049</v>
       </c>
-      <c r="B329" t="n">
+      <c r="C329" t="n">
         <v>1.228854805968776</v>
       </c>
-      <c r="C329" t="n">
+      <c r="D329" t="n">
         <v>156929</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B330" t="n">
         <v>1.51141846247945</v>
       </c>
-      <c r="B330" t="n">
+      <c r="C330" t="n">
         <v>1.3021058039009</v>
       </c>
-      <c r="C330" t="n">
+      <c r="D330" t="n">
         <v>160069</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B331" t="n">
         <v>1.628677439624291</v>
       </c>
-      <c r="B331" t="n">
+      <c r="C331" t="n">
         <v>1.445894799841738</v>
       </c>
-      <c r="C331" t="n">
+      <c r="D331" t="n">
         <v>165956</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B332" t="n">
         <v>1.773255473628592</v>
       </c>
-      <c r="B332" t="n">
+      <c r="C332" t="n">
         <v>1.576118796165515</v>
       </c>
-      <c r="C332" t="n">
+      <c r="D332" t="n">
         <v>172185</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
+      <c r="A333" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B333" t="n">
         <v>1.91768541775317</v>
       </c>
-      <c r="B333" t="n">
+      <c r="C333" t="n">
         <v>1.706342792489292</v>
       </c>
-      <c r="C333" t="n">
+      <c r="D333" t="n">
         <v>179262</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
+      <c r="A334" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B334" t="n">
         <v>2.017293491614782</v>
       </c>
-      <c r="B334" t="n">
+      <c r="C334" t="n">
         <v>1.806723789655537</v>
       </c>
-      <c r="C334" t="n">
+      <c r="D334" t="n">
         <v>184451</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
+      <c r="A335" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B335" t="n">
         <v>-1.640907340102493</v>
       </c>
-      <c r="B335" t="n">
+      <c r="C335" t="n">
         <v>-1.676768112005504</v>
       </c>
-      <c r="C335" t="n">
+      <c r="D335" t="n">
         <v>2911</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
+      <c r="A336" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="B336" t="n">
         <v>-1.51000293832599</v>
       </c>
-      <c r="B336" t="n">
+      <c r="C336" t="n">
         <v>-1.546544115681727</v>
       </c>
-      <c r="C336" t="n">
+      <c r="D336" t="n">
         <v>9287</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B337" t="n">
         <v>-1.428095131040849</v>
       </c>
-      <c r="B337" t="n">
+      <c r="C337" t="n">
         <v>-1.462441118055954</v>
       </c>
-      <c r="C337" t="n">
+      <c r="D337" t="n">
         <v>13039</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
+      <c r="A338" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B338" t="n">
         <v>-1.310180327285804</v>
       </c>
-      <c r="B338" t="n">
+      <c r="C338" t="n">
         <v>-1.345782121349237</v>
       </c>
-      <c r="C338" t="n">
+      <c r="D338" t="n">
         <v>19472</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B339" t="n">
         <v>-1.176504529188763</v>
       </c>
-      <c r="B339" t="n">
+      <c r="C339" t="n">
         <v>-1.223697124795696</v>
       </c>
-      <c r="C339" t="n">
+      <c r="D339" t="n">
         <v>26197</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B340" t="n">
         <v>-1.019402322499277</v>
       </c>
-      <c r="B340" t="n">
+      <c r="C340" t="n">
         <v>-1.08262112877827</v>
       </c>
-      <c r="C340" t="n">
+      <c r="D340" t="n">
         <v>32348</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B341" t="n">
         <v>-0.8997033882885163</v>
       </c>
-      <c r="B341" t="n">
+      <c r="C341" t="n">
         <v>-0.952397132454493</v>
       </c>
-      <c r="C341" t="n">
+      <c r="D341" t="n">
         <v>38925</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B342" t="n">
         <v>-0.8444094479593908</v>
       </c>
-      <c r="B342" t="n">
+      <c r="C342" t="n">
         <v>-0.8818591344457802</v>
       </c>
-      <c r="C342" t="n">
+      <c r="D342" t="n">
         <v>42575</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="B343" t="n">
         <v>-0.6920813769162281</v>
       </c>
-      <c r="B343" t="n">
+      <c r="C343" t="n">
         <v>-0.7543481380454151</v>
       </c>
-      <c r="C343" t="n">
+      <c r="D343" t="n">
         <v>48957</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B344" t="n">
         <v>-0.6141790482826548</v>
       </c>
-      <c r="B344" t="n">
+      <c r="C344" t="n">
         <v>-0.6756711402664664</v>
       </c>
-      <c r="C344" t="n">
+      <c r="D344" t="n">
         <v>52657</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B345" t="n">
         <v>-0.469163796538217</v>
       </c>
-      <c r="B345" t="n">
+      <c r="C345" t="n">
         <v>-0.531882144325629</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>60282</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
+      <c r="A346" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B346" t="n">
         <v>-0.3297054412329261</v>
       </c>
-      <c r="B346" t="n">
+      <c r="C346" t="n">
         <v>-0.4070841478486758</v>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>67347</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B347" t="n">
         <v>-0.2124676197851885</v>
       </c>
-      <c r="B347" t="n">
+      <c r="C347" t="n">
         <v>-0.2931381510653707</v>
       </c>
-      <c r="C347" t="n">
+      <c r="D347" t="n">
         <v>73627</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
+      <c r="A348" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B348" t="n">
         <v>-0.07420808731575403</v>
       </c>
-      <c r="B348" t="n">
+      <c r="C348" t="n">
         <v>-0.1737661544352416</v>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>80540</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B349" t="n">
         <v>0.001317751343209502</v>
       </c>
-      <c r="B349" t="n">
+      <c r="C349" t="n">
         <v>-0.08966315680946878</v>
       </c>
-      <c r="C349" t="n">
+      <c r="D349" t="n">
         <v>84756</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="B350" t="n">
         <v>0.1016904689863547</v>
       </c>
-      <c r="B350" t="n">
+      <c r="C350" t="n">
         <v>0.02156984005042429</v>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>89232</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B351" t="n">
         <v>0.1887602663647134</v>
       </c>
-      <c r="B351" t="n">
+      <c r="C351" t="n">
         <v>0.100246837829373</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>92300</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
+      <c r="A352" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B352" t="n">
         <v>0.3148270654035832</v>
       </c>
-      <c r="B352" t="n">
+      <c r="C352" t="n">
         <v>0.2169058345360901</v>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>97653</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
+      <c r="A353" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B353" t="n">
         <v>0.4335316818504864</v>
       </c>
-      <c r="B353" t="n">
+      <c r="C353" t="n">
         <v>0.3389908310896313</v>
       </c>
-      <c r="C353" t="n">
+      <c r="D353" t="n">
         <v>103016</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
+      <c r="A354" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B354" t="n">
         <v>0.5828344882078698</v>
       </c>
-      <c r="B354" t="n">
+      <c r="C354" t="n">
         <v>0.4610758276431725</v>
       </c>
-      <c r="C354" t="n">
+      <c r="D354" t="n">
         <v>107872</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
+      <c r="A355" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B355" t="n">
         <v>0.7203183117835145</v>
       </c>
-      <c r="B355" t="n">
+      <c r="C355" t="n">
         <v>0.5831608241967137</v>
       </c>
-      <c r="C355" t="n">
+      <c r="D355" t="n">
         <v>112743</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
+      <c r="A356" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B356" t="n">
         <v>0.7893775590278873</v>
       </c>
-      <c r="B356" t="n">
+      <c r="C356" t="n">
         <v>0.6455598224351902</v>
       </c>
-      <c r="C356" t="n">
+      <c r="D356" t="n">
         <v>116040</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
+      <c r="A357" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="B357" t="n">
         <v>0.9180112493152967</v>
       </c>
-      <c r="B357" t="n">
+      <c r="C357" t="n">
         <v>0.7649318190653194</v>
       </c>
-      <c r="C357" t="n">
+      <c r="D357" t="n">
         <v>121435</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
+      <c r="A358" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B358" t="n">
         <v>1.004728451741933</v>
       </c>
-      <c r="B358" t="n">
+      <c r="C358" t="n">
         <v>0.8463218167676801</v>
       </c>
-      <c r="C358" t="n">
+      <c r="D358" t="n">
         <v>124735</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
+      <c r="A359" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B359" t="n">
         <v>1.100676590004664</v>
       </c>
-      <c r="B359" t="n">
+      <c r="C359" t="n">
         <v>0.9467028139339251</v>
       </c>
-      <c r="C359" t="n">
+      <c r="D359" t="n">
         <v>129274</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
+      <c r="A360" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B360" t="n">
         <v>1.21196966056636</v>
       </c>
-      <c r="B360" t="n">
+      <c r="C360" t="n">
         <v>1.052509810946994</v>
       </c>
-      <c r="C360" t="n">
+      <c r="D360" t="n">
         <v>133746</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
+      <c r="A361" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B361" t="n">
         <v>1.329334416196718</v>
       </c>
-      <c r="B361" t="n">
+      <c r="C361" t="n">
         <v>1.161029807883475</v>
       </c>
-      <c r="C361" t="n">
+      <c r="D361" t="n">
         <v>139630</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B362" t="n">
         <v>1.449935993483888</v>
       </c>
-      <c r="B362" t="n">
+      <c r="C362" t="n">
         <v>1.283114804437016</v>
       </c>
-      <c r="C362" t="n">
+      <c r="D362" t="n">
         <v>146044</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
+      <c r="A363" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B363" t="n">
         <v>1.508269302296862</v>
       </c>
-      <c r="B363" t="n">
+      <c r="C363" t="n">
         <v>1.348226802598905</v>
       </c>
-      <c r="C363" t="n">
+      <c r="D363" t="n">
         <v>149549</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
+      <c r="A364" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="B364" t="n">
         <v>1.61669930185057</v>
       </c>
-      <c r="B364" t="n">
+      <c r="C364" t="n">
         <v>1.451320799688562</v>
       </c>
-      <c r="C364" t="n">
+      <c r="D364" t="n">
         <v>154272</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
+      <c r="A365" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B365" t="n">
         <v>1.665179874993782</v>
       </c>
-      <c r="B365" t="n">
+      <c r="C365" t="n">
         <v>1.497441798386566</v>
       </c>
-      <c r="C365" t="n">
+      <c r="D365" t="n">
         <v>155787</v>
       </c>
     </row>
